--- a/data/pca/factorExposure/factorExposure_2018-03-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.001883793278458664</v>
+        <v>-0.01128529995780119</v>
       </c>
       <c r="C2">
-        <v>-0.02603536116666601</v>
+        <v>0.02563100514483077</v>
       </c>
       <c r="D2">
-        <v>0.01857681536718349</v>
+        <v>0.02492001244604672</v>
       </c>
       <c r="E2">
-        <v>0.007769725775808296</v>
+        <v>0.02206304474336668</v>
       </c>
       <c r="F2">
-        <v>0.08196097790540577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.008563590650988082</v>
+      </c>
+      <c r="G2">
+        <v>-0.01619213795769058</v>
+      </c>
+      <c r="H2">
+        <v>-0.04615899688518124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0767424026717773</v>
+        <v>-0.05492604884801421</v>
       </c>
       <c r="C3">
-        <v>-0.06576715892840067</v>
+        <v>0.07813414002520828</v>
       </c>
       <c r="D3">
-        <v>-0.009660867862611885</v>
+        <v>0.007844771837829091</v>
       </c>
       <c r="E3">
-        <v>0.02624720273879565</v>
+        <v>0.01626696514147019</v>
       </c>
       <c r="F3">
-        <v>0.3061913239994121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.08290598313080776</v>
+      </c>
+      <c r="G3">
+        <v>-0.09491671801026751</v>
+      </c>
+      <c r="H3">
+        <v>-0.1090548508805557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03985691978805156</v>
+        <v>-0.03570712221723621</v>
       </c>
       <c r="C4">
-        <v>-0.02344647424380844</v>
+        <v>0.06253931047801627</v>
       </c>
       <c r="D4">
-        <v>0.02886069377645229</v>
+        <v>0.01893168265812123</v>
       </c>
       <c r="E4">
-        <v>-0.04097521978053846</v>
+        <v>-0.01662889128957771</v>
       </c>
       <c r="F4">
-        <v>0.05749103696437891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.01816512947558858</v>
+      </c>
+      <c r="G4">
+        <v>-0.04728589475682692</v>
+      </c>
+      <c r="H4">
+        <v>-0.05272558142067971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03017886494479514</v>
+        <v>-0.02133750184261202</v>
       </c>
       <c r="C6">
-        <v>-0.02159087798951193</v>
+        <v>0.06293183007542068</v>
       </c>
       <c r="D6">
-        <v>0.03826666146816447</v>
+        <v>0.01406517663523672</v>
       </c>
       <c r="E6">
-        <v>-0.0275419487489742</v>
+        <v>-0.004508392617785181</v>
       </c>
       <c r="F6">
-        <v>0.01994575588330598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02149153693591244</v>
+      </c>
+      <c r="G6">
+        <v>-0.02474051999156315</v>
+      </c>
+      <c r="H6">
+        <v>-0.05388508990216442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04287707579230098</v>
+        <v>-0.008388561383409881</v>
       </c>
       <c r="C7">
-        <v>0.02152797721822429</v>
+        <v>0.03372079868677576</v>
       </c>
       <c r="D7">
-        <v>0.0214903298377017</v>
+        <v>0.01142702786739597</v>
       </c>
       <c r="E7">
-        <v>-0.01315449615085204</v>
+        <v>-0.04258251365915133</v>
       </c>
       <c r="F7">
-        <v>0.02882393121599566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.00929825700937696</v>
+      </c>
+      <c r="G7">
+        <v>-0.01223696781303704</v>
+      </c>
+      <c r="H7">
+        <v>-0.03538912881703968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01287491193493117</v>
+        <v>0.003644271519428399</v>
       </c>
       <c r="C8">
-        <v>-0.001801601156619155</v>
+        <v>0.01055125782075711</v>
       </c>
       <c r="D8">
-        <v>0.03564765849559168</v>
+        <v>0.00210769177173163</v>
       </c>
       <c r="E8">
-        <v>-0.02949679854626225</v>
+        <v>-0.008889586292749789</v>
       </c>
       <c r="F8">
-        <v>0.05213510962219615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.008155069799097919</v>
+      </c>
+      <c r="G8">
+        <v>-0.03234233858414124</v>
+      </c>
+      <c r="H8">
+        <v>-0.0253581816747389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02766143126711257</v>
+        <v>-0.02046931132992702</v>
       </c>
       <c r="C9">
-        <v>-0.0140829233462522</v>
+        <v>0.04764464203894455</v>
       </c>
       <c r="D9">
-        <v>0.0288783149931955</v>
+        <v>0.01316411741882219</v>
       </c>
       <c r="E9">
-        <v>-0.01505186265390418</v>
+        <v>-0.004426983150751194</v>
       </c>
       <c r="F9">
-        <v>0.07318968483126406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.007719988135860347</v>
+      </c>
+      <c r="G9">
+        <v>-0.03547348265995025</v>
+      </c>
+      <c r="H9">
+        <v>-0.05141283104501868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03767283166846774</v>
+        <v>-0.1361633502567922</v>
       </c>
       <c r="C10">
-        <v>-0.01029104287077545</v>
+        <v>-0.1381976158335715</v>
       </c>
       <c r="D10">
-        <v>-0.1461637761600965</v>
+        <v>-0.03038279675887983</v>
       </c>
       <c r="E10">
-        <v>0.05028466961675924</v>
+        <v>0.004032594355042651</v>
       </c>
       <c r="F10">
-        <v>0.04911664223005826</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.05076061851239556</v>
+      </c>
+      <c r="G10">
+        <v>-0.007582201034550821</v>
+      </c>
+      <c r="H10">
+        <v>0.009556076177925144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02342406096988733</v>
+        <v>-0.01437848522236839</v>
       </c>
       <c r="C11">
-        <v>-0.0271746264801811</v>
+        <v>0.04989320212941783</v>
       </c>
       <c r="D11">
-        <v>0.03291099143882933</v>
+        <v>0.0004638267808831785</v>
       </c>
       <c r="E11">
-        <v>-0.02424643932693638</v>
+        <v>0.001719733043976748</v>
       </c>
       <c r="F11">
-        <v>0.02139057350620606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.006461686368229795</v>
+      </c>
+      <c r="G11">
+        <v>-0.01487726894875519</v>
+      </c>
+      <c r="H11">
+        <v>-0.04797511458260743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03566948909081467</v>
+        <v>-0.01778867919988154</v>
       </c>
       <c r="C12">
-        <v>-0.03042596491287341</v>
+        <v>0.04770914556948649</v>
       </c>
       <c r="D12">
-        <v>0.02675896084904121</v>
+        <v>0.004208043694500532</v>
       </c>
       <c r="E12">
-        <v>-0.03195522548386199</v>
+        <v>-0.01148438249040419</v>
       </c>
       <c r="F12">
-        <v>-0.003801528818547304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01060248534105824</v>
+      </c>
+      <c r="G12">
+        <v>-0.007934002805196783</v>
+      </c>
+      <c r="H12">
+        <v>-0.01834136494077376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.001501571024612477</v>
+        <v>-0.01512379354395301</v>
       </c>
       <c r="C13">
-        <v>-0.01832343483984326</v>
+        <v>0.02429009726589181</v>
       </c>
       <c r="D13">
-        <v>0.006793866124511581</v>
+        <v>0.02074110508375674</v>
       </c>
       <c r="E13">
-        <v>-0.01114240011289275</v>
+        <v>0.01646766149856748</v>
       </c>
       <c r="F13">
-        <v>0.06767954493584431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.005519437314878269</v>
+      </c>
+      <c r="G13">
+        <v>-0.04338706915426654</v>
+      </c>
+      <c r="H13">
+        <v>-0.06748861271630138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02322539886808997</v>
+        <v>-0.007777518452530703</v>
       </c>
       <c r="C14">
-        <v>-0.001294212496971984</v>
+        <v>0.020217417305323</v>
       </c>
       <c r="D14">
-        <v>0.01312645280415938</v>
+        <v>0.006506697411540962</v>
       </c>
       <c r="E14">
-        <v>-0.01644827318457063</v>
+        <v>-0.01470552189226696</v>
       </c>
       <c r="F14">
-        <v>0.04110474946005416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.008879042734321302</v>
+      </c>
+      <c r="G14">
+        <v>-0.02666303225953727</v>
+      </c>
+      <c r="H14">
+        <v>-0.01614751347514656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02477827050986493</v>
+        <v>-0.01630697759830493</v>
       </c>
       <c r="C16">
-        <v>-0.0267161442359654</v>
+        <v>0.04349293943796981</v>
       </c>
       <c r="D16">
-        <v>0.036105434161378</v>
+        <v>-0.0003074698298421874</v>
       </c>
       <c r="E16">
-        <v>-0.02491749832641485</v>
+        <v>-0.002542422611165626</v>
       </c>
       <c r="F16">
-        <v>0.02704283676008295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.006171666554871148</v>
+      </c>
+      <c r="G16">
+        <v>-0.01676164842434327</v>
+      </c>
+      <c r="H16">
+        <v>-0.03693496496908048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02998234878103827</v>
+        <v>-0.01707892148683516</v>
       </c>
       <c r="C19">
-        <v>-0.02425013373860867</v>
+        <v>0.04324663257610029</v>
       </c>
       <c r="D19">
-        <v>0.03443773781499924</v>
+        <v>0.01166428510094252</v>
       </c>
       <c r="E19">
-        <v>-0.04151859873460651</v>
+        <v>-0.006275568213396807</v>
       </c>
       <c r="F19">
-        <v>0.06791479756001174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.007655869589209591</v>
+      </c>
+      <c r="G19">
+        <v>-0.05020965499740499</v>
+      </c>
+      <c r="H19">
+        <v>-0.05102483930981497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003670424673127119</v>
+        <v>-0.003807564887987283</v>
       </c>
       <c r="C20">
-        <v>0.01000519125097158</v>
+        <v>0.02072692818503594</v>
       </c>
       <c r="D20">
-        <v>0.001602023964156619</v>
+        <v>0.01062068006645454</v>
       </c>
       <c r="E20">
-        <v>-0.01521947213848467</v>
+        <v>-0.002611530334035823</v>
       </c>
       <c r="F20">
-        <v>0.04412904281597287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01498375654388288</v>
+      </c>
+      <c r="G20">
+        <v>-0.03883302811680788</v>
+      </c>
+      <c r="H20">
+        <v>-0.02855129541754897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02131601869855571</v>
+        <v>-0.009316113167012719</v>
       </c>
       <c r="C21">
-        <v>0.01015717338396941</v>
+        <v>0.01997069047149439</v>
       </c>
       <c r="D21">
-        <v>0.0269238464725663</v>
+        <v>0.01277294633684619</v>
       </c>
       <c r="E21">
-        <v>-0.01287880076048888</v>
+        <v>-0.0156841830032264</v>
       </c>
       <c r="F21">
-        <v>0.01731431534720488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01618210130332117</v>
+      </c>
+      <c r="G21">
+        <v>-0.02538465377562965</v>
+      </c>
+      <c r="H21">
+        <v>-0.04233379363350117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02077044094845164</v>
+        <v>-0.00977070783661484</v>
       </c>
       <c r="C24">
-        <v>-0.02274730997424926</v>
+        <v>0.04156471549383131</v>
       </c>
       <c r="D24">
-        <v>0.01610068176494173</v>
+        <v>0.005252052341153383</v>
       </c>
       <c r="E24">
-        <v>-0.02177753220528599</v>
+        <v>-0.001897683255204861</v>
       </c>
       <c r="F24">
-        <v>0.02541002456382124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.009106218316952264</v>
+      </c>
+      <c r="G24">
+        <v>-0.008045032899267</v>
+      </c>
+      <c r="H24">
+        <v>-0.0431894393946874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02596827518958078</v>
+        <v>-0.02435758206965756</v>
       </c>
       <c r="C25">
-        <v>-0.02389379293768195</v>
+        <v>0.04948806049000604</v>
       </c>
       <c r="D25">
-        <v>0.02643822443630696</v>
+        <v>0.008290285564926605</v>
       </c>
       <c r="E25">
-        <v>-0.02012265142841833</v>
+        <v>-0.007293166706917919</v>
       </c>
       <c r="F25">
-        <v>0.02910170371665537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.0138168960440384</v>
+      </c>
+      <c r="G25">
+        <v>-0.01713826522139575</v>
+      </c>
+      <c r="H25">
+        <v>-0.03980218532614548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01169180989329943</v>
+        <v>-0.006749664961748779</v>
       </c>
       <c r="C26">
-        <v>-0.009255305973002514</v>
+        <v>0.005475059424635648</v>
       </c>
       <c r="D26">
-        <v>0.01292062223834173</v>
+        <v>0.02223867780162377</v>
       </c>
       <c r="E26">
-        <v>0.00752345635398038</v>
+        <v>-0.00272061661605503</v>
       </c>
       <c r="F26">
-        <v>0.05038547142389529</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.00919238697106565</v>
+      </c>
+      <c r="G26">
+        <v>-0.01196569167487477</v>
+      </c>
+      <c r="H26">
+        <v>-0.01973705094868919</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02426070517989662</v>
+        <v>-0.008707537666604153</v>
       </c>
       <c r="C27">
-        <v>-0.01713875460107845</v>
+        <v>0.009499545179017443</v>
       </c>
       <c r="D27">
-        <v>-0.001925089107462445</v>
+        <v>-0.001668538433066741</v>
       </c>
       <c r="E27">
-        <v>-0.03421501444845632</v>
+        <v>-0.006338157315209771</v>
       </c>
       <c r="F27">
-        <v>0.005480907771764341</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.0007908017451504258</v>
+      </c>
+      <c r="G27">
+        <v>-0.009763785623717703</v>
+      </c>
+      <c r="H27">
+        <v>0.01037840821311485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07465844008958138</v>
+        <v>-0.1904516701673973</v>
       </c>
       <c r="C28">
-        <v>-0.02715538220617464</v>
+        <v>-0.1799907489427749</v>
       </c>
       <c r="D28">
-        <v>-0.2102294850582074</v>
+        <v>-0.02749022281150086</v>
       </c>
       <c r="E28">
-        <v>0.08598343949291598</v>
+        <v>-0.01069436848778413</v>
       </c>
       <c r="F28">
-        <v>0.04989113373452057</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04720446954503429</v>
+      </c>
+      <c r="G28">
+        <v>0.001897493897226274</v>
+      </c>
+      <c r="H28">
+        <v>0.01099535337807567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02408693446938533</v>
+        <v>-0.01260892157040962</v>
       </c>
       <c r="C29">
-        <v>-0.002932741345477572</v>
+        <v>0.01814993192161956</v>
       </c>
       <c r="D29">
-        <v>0.01442700592501057</v>
+        <v>0.005322085182723719</v>
       </c>
       <c r="E29">
-        <v>-0.01718680371741871</v>
+        <v>-0.01420524490563511</v>
       </c>
       <c r="F29">
-        <v>0.03866145571966755</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01047588344051362</v>
+      </c>
+      <c r="G29">
+        <v>-0.02563440225475079</v>
+      </c>
+      <c r="H29">
+        <v>-0.009426867694737296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01933586868301295</v>
+        <v>-0.02331575075737649</v>
       </c>
       <c r="C30">
-        <v>-0.06812690710298233</v>
+        <v>0.08785721983979303</v>
       </c>
       <c r="D30">
-        <v>0.05297828043374293</v>
+        <v>0.02512132322066054</v>
       </c>
       <c r="E30">
-        <v>-0.02556499516441087</v>
+        <v>0.0324214635299882</v>
       </c>
       <c r="F30">
-        <v>0.08112336405283209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.01036419675679157</v>
+      </c>
+      <c r="G30">
+        <v>-0.05036699323458791</v>
+      </c>
+      <c r="H30">
+        <v>-0.07497876855131959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03896519143586692</v>
+        <v>-0.03861038410931859</v>
       </c>
       <c r="C31">
-        <v>-0.03995441509945663</v>
+        <v>0.03224280857838407</v>
       </c>
       <c r="D31">
-        <v>0.01685362587587967</v>
+        <v>-0.0002255062066757772</v>
       </c>
       <c r="E31">
-        <v>-0.02516093674171395</v>
+        <v>-0.002310700670288677</v>
       </c>
       <c r="F31">
-        <v>0.03207835207387966</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.006594076505286711</v>
+      </c>
+      <c r="G31">
+        <v>-0.01186405227747447</v>
+      </c>
+      <c r="H31">
+        <v>-0.001934709369269359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02337138847451277</v>
+        <v>-0.0007066548289414845</v>
       </c>
       <c r="C32">
-        <v>0.01192195256486747</v>
+        <v>0.01392247261633709</v>
       </c>
       <c r="D32">
-        <v>0.05070842250308636</v>
+        <v>-0.008100417634505686</v>
       </c>
       <c r="E32">
-        <v>-0.043500737015175</v>
+        <v>-0.02897978973422126</v>
       </c>
       <c r="F32">
-        <v>0.03822666338488245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.007385521987715804</v>
+      </c>
+      <c r="G32">
+        <v>-0.0506191234916009</v>
+      </c>
+      <c r="H32">
+        <v>-0.04896822982262384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0211625932573302</v>
+        <v>-0.01799417238727478</v>
       </c>
       <c r="C33">
-        <v>-0.04701772934197416</v>
+        <v>0.04840575923866216</v>
       </c>
       <c r="D33">
-        <v>0.04615408942469897</v>
+        <v>0.01176054380053107</v>
       </c>
       <c r="E33">
-        <v>-0.01113593746394546</v>
+        <v>0.02139318929603594</v>
       </c>
       <c r="F33">
-        <v>0.05530986843783967</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01962865535848528</v>
+      </c>
+      <c r="G33">
+        <v>-0.02154289342632869</v>
+      </c>
+      <c r="H33">
+        <v>-0.04795594649598595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02958827716359426</v>
+        <v>-0.02319022421263025</v>
       </c>
       <c r="C34">
-        <v>-0.02055878468212569</v>
+        <v>0.05042695576890875</v>
       </c>
       <c r="D34">
-        <v>0.03544820230208545</v>
+        <v>-0.007800233488848855</v>
       </c>
       <c r="E34">
-        <v>-0.03202880481134906</v>
+        <v>-0.01394518562135162</v>
       </c>
       <c r="F34">
-        <v>0.02173561695954185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.0155461474666798</v>
+      </c>
+      <c r="G34">
+        <v>-0.01120094417587196</v>
+      </c>
+      <c r="H34">
+        <v>-0.03310564065638121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01892010211338361</v>
+        <v>-0.01431666354814967</v>
       </c>
       <c r="C36">
-        <v>-0.004165911509675865</v>
+        <v>0.006316637135325683</v>
       </c>
       <c r="D36">
-        <v>0.005730862580461319</v>
+        <v>0.00879383109110052</v>
       </c>
       <c r="E36">
-        <v>-0.01227402524460841</v>
+        <v>-0.007883756094032539</v>
       </c>
       <c r="F36">
-        <v>0.02569147962627799</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.00780122449784615</v>
+      </c>
+      <c r="G36">
+        <v>-0.01084895520457953</v>
+      </c>
+      <c r="H36">
+        <v>-0.01347275994813131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01122076518601082</v>
+        <v>-0.02649741296798148</v>
       </c>
       <c r="C38">
-        <v>-0.01087146316290647</v>
+        <v>0.02166879269690675</v>
       </c>
       <c r="D38">
-        <v>-0.001807781401897482</v>
+        <v>-0.01082253524739963</v>
       </c>
       <c r="E38">
-        <v>0.01910447695940658</v>
+        <v>-4.460351718563875e-06</v>
       </c>
       <c r="F38">
-        <v>0.04316633082070289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.00174069717563909</v>
+      </c>
+      <c r="G38">
+        <v>-0.01634059489032311</v>
+      </c>
+      <c r="H38">
+        <v>-0.0347083504566966</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01992477276815955</v>
+        <v>-0.002889766893209987</v>
       </c>
       <c r="C39">
-        <v>-0.02334324034416205</v>
+        <v>0.08717240145178547</v>
       </c>
       <c r="D39">
-        <v>0.05537235124058549</v>
+        <v>0.0119786840418488</v>
       </c>
       <c r="E39">
-        <v>-0.0254565514091969</v>
+        <v>0.007054190707227973</v>
       </c>
       <c r="F39">
-        <v>0.04300859960532595</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.008261387961251863</v>
+      </c>
+      <c r="G39">
+        <v>-0.02386626576062235</v>
+      </c>
+      <c r="H39">
+        <v>-0.07779692891028304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.002054205476415976</v>
+        <v>-0.02004311175817808</v>
       </c>
       <c r="C40">
-        <v>-0.04772121159743201</v>
+        <v>0.03073303637967817</v>
       </c>
       <c r="D40">
-        <v>0.01513692537015195</v>
+        <v>0.008496048983025837</v>
       </c>
       <c r="E40">
-        <v>-0.03276515628299627</v>
+        <v>0.02383578351852457</v>
       </c>
       <c r="F40">
-        <v>0.02874345171398892</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02446146802972038</v>
+      </c>
+      <c r="G40">
+        <v>-0.01998051176712152</v>
+      </c>
+      <c r="H40">
+        <v>-0.04773128854240548</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008493621341933258</v>
+        <v>-0.01212772088551737</v>
       </c>
       <c r="C41">
-        <v>-0.0005297312942211462</v>
+        <v>-0.008254967922144623</v>
       </c>
       <c r="D41">
-        <v>0.0040138526771284</v>
+        <v>0.001617263110811865</v>
       </c>
       <c r="E41">
-        <v>0.01470214778625636</v>
+        <v>-0.00509358971610304</v>
       </c>
       <c r="F41">
-        <v>0.005482050078609337</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.006692691407873924</v>
+      </c>
+      <c r="G41">
+        <v>0.007408708021482294</v>
+      </c>
+      <c r="H41">
+        <v>0.001659782827286975</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1944425248978986</v>
+        <v>-0.08439455414257703</v>
       </c>
       <c r="C42">
-        <v>-0.2821767049645579</v>
+        <v>0.2079665107208886</v>
       </c>
       <c r="D42">
-        <v>0.288341904970375</v>
+        <v>0.1284948428351305</v>
       </c>
       <c r="E42">
-        <v>0.8325275210733131</v>
+        <v>0.1881740998098951</v>
       </c>
       <c r="F42">
-        <v>-0.258785363018136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.5184206571193343</v>
+      </c>
+      <c r="G42">
+        <v>0.7789092631376803</v>
+      </c>
+      <c r="H42">
+        <v>-0.06666765371296059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.009295321592689153</v>
+        <v>-0.0139688723161673</v>
       </c>
       <c r="C43">
-        <v>-0.008826980089070083</v>
+        <v>-0.006295903786774519</v>
       </c>
       <c r="D43">
-        <v>0.007120485526115967</v>
+        <v>0.00219446916415534</v>
       </c>
       <c r="E43">
-        <v>0.001880607703369632</v>
+        <v>-0.001629941919476359</v>
       </c>
       <c r="F43">
-        <v>0.02440541035076118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004039460417592087</v>
+      </c>
+      <c r="G43">
+        <v>0.006446375717528211</v>
+      </c>
+      <c r="H43">
+        <v>-0.007143359252137852</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02533092502699277</v>
+        <v>-0.008238097930131154</v>
       </c>
       <c r="C44">
-        <v>-0.0001892625858096836</v>
+        <v>0.04048439648052801</v>
       </c>
       <c r="D44">
-        <v>0.02606043439795393</v>
+        <v>0.004768565872267915</v>
       </c>
       <c r="E44">
-        <v>0.0007478582018488998</v>
+        <v>-0.01105906370623773</v>
       </c>
       <c r="F44">
-        <v>0.0840038347080015</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02361874876871641</v>
+      </c>
+      <c r="G44">
+        <v>-0.02237356217657093</v>
+      </c>
+      <c r="H44">
+        <v>-0.05928748225261977</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01694629598485532</v>
+        <v>-0.004194226474290322</v>
       </c>
       <c r="C46">
-        <v>-0.01259176974572885</v>
+        <v>0.01247579447178916</v>
       </c>
       <c r="D46">
-        <v>0.04556272381385065</v>
+        <v>0.01045297339143043</v>
       </c>
       <c r="E46">
-        <v>-0.02212625062766182</v>
+        <v>-0.004066008469866186</v>
       </c>
       <c r="F46">
-        <v>0.05566242702420376</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01065647794783079</v>
+      </c>
+      <c r="G46">
+        <v>-0.01897482459170905</v>
+      </c>
+      <c r="H46">
+        <v>-0.01348664916482147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0655416803977958</v>
+        <v>-0.05433430276787346</v>
       </c>
       <c r="C47">
-        <v>-0.0617824395560553</v>
+        <v>0.06818977794356171</v>
       </c>
       <c r="D47">
-        <v>0.007268130185618129</v>
+        <v>-0.008575508251988665</v>
       </c>
       <c r="E47">
-        <v>-0.03561163102419754</v>
+        <v>-0.009519135372966033</v>
       </c>
       <c r="F47">
-        <v>0.002907859164301361</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.002834324794701852</v>
+      </c>
+      <c r="G47">
+        <v>-0.005112127454842668</v>
+      </c>
+      <c r="H47">
+        <v>0.03711442830274871</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01522332503694294</v>
+        <v>-0.01369511650383089</v>
       </c>
       <c r="C48">
-        <v>-0.01297269921451374</v>
+        <v>0.01562179440983566</v>
       </c>
       <c r="D48">
-        <v>0.01314790121751859</v>
+        <v>-0.0001527534913603626</v>
       </c>
       <c r="E48">
-        <v>-0.01184402215452712</v>
+        <v>-0.001351865533164006</v>
       </c>
       <c r="F48">
-        <v>0.03129007437963516</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.004555705535268601</v>
+      </c>
+      <c r="G48">
+        <v>-0.01260785936832088</v>
+      </c>
+      <c r="H48">
+        <v>-0.01830197014958396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07321693271095249</v>
+        <v>-0.05823739939223382</v>
       </c>
       <c r="C50">
-        <v>-0.04677473593594963</v>
+        <v>0.06334366455503218</v>
       </c>
       <c r="D50">
-        <v>0.0293666926835869</v>
+        <v>-0.007191370680532559</v>
       </c>
       <c r="E50">
-        <v>-0.02341001619075746</v>
+        <v>-0.02080390210252044</v>
       </c>
       <c r="F50">
-        <v>0.0188736070424751</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.005803815349505601</v>
+      </c>
+      <c r="G50">
+        <v>-0.00593195633166763</v>
+      </c>
+      <c r="H50">
+        <v>0.0206839364202979</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01452311586902638</v>
+        <v>-0.01305722423640954</v>
       </c>
       <c r="C51">
-        <v>-0.0005015402079079447</v>
+        <v>0.01612144954547929</v>
       </c>
       <c r="D51">
-        <v>-0.006192551318054391</v>
+        <v>0.005264528648465072</v>
       </c>
       <c r="E51">
-        <v>-0.007406798709180408</v>
+        <v>-0.006683896117808407</v>
       </c>
       <c r="F51">
-        <v>0.09542982943467268</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01153490774695551</v>
+      </c>
+      <c r="G51">
+        <v>-0.02639764411904501</v>
+      </c>
+      <c r="H51">
+        <v>-0.0469332057804992</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07558300444222474</v>
+        <v>-0.07207881940414582</v>
       </c>
       <c r="C53">
-        <v>-0.06898390893742253</v>
+        <v>0.1062563093646707</v>
       </c>
       <c r="D53">
-        <v>0.03930402399689245</v>
+        <v>-0.008663049281499548</v>
       </c>
       <c r="E53">
-        <v>-0.05053533933301161</v>
+        <v>-0.01441870470014247</v>
       </c>
       <c r="F53">
-        <v>-0.03021710198508302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02517855965175666</v>
+      </c>
+      <c r="G53">
+        <v>0.005156819153357744</v>
+      </c>
+      <c r="H53">
+        <v>0.03691257416012371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02608907530039133</v>
+        <v>-0.02380888983247282</v>
       </c>
       <c r="C54">
-        <v>-0.006116602837319074</v>
+        <v>0.0002180862853733251</v>
       </c>
       <c r="D54">
-        <v>-0.002857735643942334</v>
+        <v>-0.007112819792470596</v>
       </c>
       <c r="E54">
-        <v>-0.0224941175888152</v>
+        <v>-0.007052201777865336</v>
       </c>
       <c r="F54">
-        <v>0.02964785460721854</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01863282951031303</v>
+      </c>
+      <c r="G54">
+        <v>-0.02904672332947915</v>
+      </c>
+      <c r="H54">
+        <v>-0.005820983624812713</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07181558549402495</v>
+        <v>-0.05195963461618019</v>
       </c>
       <c r="C55">
-        <v>-0.06001840932413868</v>
+        <v>0.09446515996801483</v>
       </c>
       <c r="D55">
-        <v>0.0460632607008582</v>
+        <v>-0.006281595068355134</v>
       </c>
       <c r="E55">
-        <v>-0.03397708096431434</v>
+        <v>-0.01373071108622345</v>
       </c>
       <c r="F55">
-        <v>-0.03327642465793239</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.005380809481782092</v>
+      </c>
+      <c r="G55">
+        <v>-0.0004974527649874149</v>
+      </c>
+      <c r="H55">
+        <v>0.03961582880579925</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.103941457023417</v>
+        <v>-0.09675216378713124</v>
       </c>
       <c r="C56">
-        <v>-0.1010507725138302</v>
+        <v>0.13637589172515</v>
       </c>
       <c r="D56">
-        <v>0.02060217889325576</v>
+        <v>-0.01707396338892704</v>
       </c>
       <c r="E56">
-        <v>-0.08136988428514082</v>
+        <v>-0.01918691910620994</v>
       </c>
       <c r="F56">
-        <v>-0.05544645318730018</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.04963509476715787</v>
+      </c>
+      <c r="G56">
+        <v>0.01418163846032975</v>
+      </c>
+      <c r="H56">
+        <v>0.08041494320595145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.02689785800419179</v>
+        <v>-0.02286278874509185</v>
       </c>
       <c r="C57">
-        <v>-0.03165481165842515</v>
+        <v>0.03013055398184683</v>
       </c>
       <c r="D57">
-        <v>0.017270380013574</v>
+        <v>0.02277385390786205</v>
       </c>
       <c r="E57">
-        <v>0.02776098468877891</v>
+        <v>0.01145597528906983</v>
       </c>
       <c r="F57">
-        <v>0.05369034002035928</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03676477908800858</v>
+      </c>
+      <c r="G57">
+        <v>-0.03847154396221886</v>
+      </c>
+      <c r="H57">
+        <v>-0.05932806320316437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.09977138763127608</v>
+        <v>-0.08548779462740487</v>
       </c>
       <c r="C58">
-        <v>-0.2469315950760363</v>
+        <v>0.1845693020572773</v>
       </c>
       <c r="D58">
-        <v>0.1971577935544152</v>
+        <v>0.006388881989468619</v>
       </c>
       <c r="E58">
-        <v>-0.01001514754891925</v>
+        <v>0.3759205171323444</v>
       </c>
       <c r="F58">
-        <v>0.5874595005410378</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.635887279376576</v>
+      </c>
+      <c r="G58">
+        <v>-0.5613409718780557</v>
+      </c>
+      <c r="H58">
+        <v>0.167955432482542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05106858895732766</v>
+        <v>-0.2108047340250511</v>
       </c>
       <c r="C59">
-        <v>-0.04515865954286356</v>
+        <v>-0.1658575370332541</v>
       </c>
       <c r="D59">
-        <v>-0.1866176453723223</v>
+        <v>-0.03568912234093576</v>
       </c>
       <c r="E59">
-        <v>0.04695095360022088</v>
+        <v>0.01175893763118202</v>
       </c>
       <c r="F59">
-        <v>0.07888672481404045</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01206232886240982</v>
+      </c>
+      <c r="G59">
+        <v>-0.01184164346085216</v>
+      </c>
+      <c r="H59">
+        <v>-0.02004222864725767</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.09846643404128681</v>
+        <v>-0.2211757703146509</v>
       </c>
       <c r="C60">
-        <v>-0.13685885210432</v>
+        <v>0.07301170338726266</v>
       </c>
       <c r="D60">
-        <v>-0.01661619775844255</v>
+        <v>-0.01062254114174254</v>
       </c>
       <c r="E60">
-        <v>0.01900725338247282</v>
+        <v>0.06154770045510723</v>
       </c>
       <c r="F60">
-        <v>0.1778595646242062</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1137389523297337</v>
+      </c>
+      <c r="G60">
+        <v>-0.04074530152751392</v>
+      </c>
+      <c r="H60">
+        <v>-0.3909305416630577</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01888510023489249</v>
+        <v>-0.01297432098140073</v>
       </c>
       <c r="C61">
-        <v>-0.01536165383570318</v>
+        <v>0.06212435549737282</v>
       </c>
       <c r="D61">
-        <v>0.04107443536527566</v>
+        <v>0.003643990876307625</v>
       </c>
       <c r="E61">
-        <v>-0.007238344651250188</v>
+        <v>-0.003830284580227153</v>
       </c>
       <c r="F61">
-        <v>0.01977271776535659</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.009756198066741779</v>
+      </c>
+      <c r="G61">
+        <v>-0.01997031747020469</v>
+      </c>
+      <c r="H61">
+        <v>-0.05787639034175442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01558512970701575</v>
+        <v>-0.007815914060126232</v>
       </c>
       <c r="C63">
-        <v>-0.007115969598405122</v>
+        <v>0.02284018238385891</v>
       </c>
       <c r="D63">
-        <v>0.01833551528698893</v>
+        <v>0.006924128448761628</v>
       </c>
       <c r="E63">
-        <v>-0.003865890408680038</v>
+        <v>-0.009555405957385332</v>
       </c>
       <c r="F63">
-        <v>0.001637494673678104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.001336065965309786</v>
+      </c>
+      <c r="G63">
+        <v>-0.01165159123077222</v>
+      </c>
+      <c r="H63">
+        <v>-0.0115716873166824</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03649637258095502</v>
+        <v>-0.03481667257507614</v>
       </c>
       <c r="C64">
-        <v>-0.01192372769917645</v>
+        <v>0.04405608352726471</v>
       </c>
       <c r="D64">
-        <v>0.02290719451240717</v>
+        <v>0.001770851480542035</v>
       </c>
       <c r="E64">
-        <v>-0.02009404447671495</v>
+        <v>-0.01871185981221981</v>
       </c>
       <c r="F64">
-        <v>0.008151719992855291</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.0117320957737212</v>
+      </c>
+      <c r="G64">
+        <v>0.01154349715807306</v>
+      </c>
+      <c r="H64">
+        <v>-0.03974362138244529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03405484472690847</v>
+        <v>-0.03984806038310811</v>
       </c>
       <c r="C65">
-        <v>-0.02438433606257787</v>
+        <v>0.08304388044214367</v>
       </c>
       <c r="D65">
-        <v>0.0390488942293061</v>
+        <v>0.01394824063488615</v>
       </c>
       <c r="E65">
-        <v>-0.03164543481222511</v>
+        <v>-0.007202489076383067</v>
       </c>
       <c r="F65">
-        <v>0.01291349835482869</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04064732032368328</v>
+      </c>
+      <c r="G65">
+        <v>-0.02397065860085279</v>
+      </c>
+      <c r="H65">
+        <v>-0.06673016005687848</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02382289263367591</v>
+        <v>-0.01277501141990729</v>
       </c>
       <c r="C66">
-        <v>-0.03547034166790392</v>
+        <v>0.1165034156488916</v>
       </c>
       <c r="D66">
-        <v>0.05803252763439728</v>
+        <v>0.009586020516084951</v>
       </c>
       <c r="E66">
-        <v>-0.0518321498634778</v>
+        <v>0.008556881598040833</v>
       </c>
       <c r="F66">
-        <v>0.03073552055829638</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03137792524814847</v>
+      </c>
+      <c r="G66">
+        <v>-0.03703036514650041</v>
+      </c>
+      <c r="H66">
+        <v>-0.08691879119382419</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01731368930109651</v>
+        <v>-0.04875250222785928</v>
       </c>
       <c r="C67">
-        <v>-0.02156626015155987</v>
+        <v>0.03000323935913015</v>
       </c>
       <c r="D67">
-        <v>-0.01045840341203253</v>
+        <v>-0.01100193702947238</v>
       </c>
       <c r="E67">
-        <v>0.01061199441838179</v>
+        <v>0.0007477913808405883</v>
       </c>
       <c r="F67">
-        <v>0.02708536938530308</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01322774173435125</v>
+      </c>
+      <c r="G67">
+        <v>-0.01583325733236779</v>
+      </c>
+      <c r="H67">
+        <v>-0.03280652631854834</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06486294959867622</v>
+        <v>-0.2075252487967439</v>
       </c>
       <c r="C68">
-        <v>-0.04310762573850477</v>
+        <v>-0.2049571955444122</v>
       </c>
       <c r="D68">
-        <v>-0.2077061174426107</v>
+        <v>-0.01718596310053042</v>
       </c>
       <c r="E68">
-        <v>0.05377521271998422</v>
+        <v>0.01055105562494301</v>
       </c>
       <c r="F68">
-        <v>0.07590415651305035</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.06064750338214114</v>
+      </c>
+      <c r="G68">
+        <v>-0.0001787909170003132</v>
+      </c>
+      <c r="H68">
+        <v>0.03665541332819543</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05056199751961313</v>
+        <v>-0.05581376600986676</v>
       </c>
       <c r="C69">
-        <v>-0.05079891828655</v>
+        <v>0.06258867203556068</v>
       </c>
       <c r="D69">
-        <v>0.01000948605149137</v>
+        <v>-0.01321603161871113</v>
       </c>
       <c r="E69">
-        <v>-0.03852176124136304</v>
+        <v>-0.01026609476087755</v>
       </c>
       <c r="F69">
-        <v>0.005375858782202765</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.0262501349283337</v>
+      </c>
+      <c r="G69">
+        <v>-0.004564778936776494</v>
+      </c>
+      <c r="H69">
+        <v>0.00327014662211107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06744086426542369</v>
+        <v>-0.1829984855710643</v>
       </c>
       <c r="C71">
-        <v>-0.05110790929500463</v>
+        <v>-0.1596949259989691</v>
       </c>
       <c r="D71">
-        <v>-0.2121183974894219</v>
+        <v>-0.02052643229706278</v>
       </c>
       <c r="E71">
-        <v>0.09499786580227761</v>
+        <v>0.01236513069186667</v>
       </c>
       <c r="F71">
-        <v>0.081378409449113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.0672450943578882</v>
+      </c>
+      <c r="G71">
+        <v>0.005372381413034816</v>
+      </c>
+      <c r="H71">
+        <v>0.01343459490134063</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.07921618282357661</v>
+        <v>-0.05525568129592313</v>
       </c>
       <c r="C72">
-        <v>-0.1012142556595441</v>
+        <v>0.113153639138984</v>
       </c>
       <c r="D72">
-        <v>0.06944241752707012</v>
+        <v>-0.01214781171453553</v>
       </c>
       <c r="E72">
-        <v>-0.08712009739264662</v>
+        <v>0.01764669569736058</v>
       </c>
       <c r="F72">
-        <v>0.08773027062104156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04663858579948484</v>
+      </c>
+      <c r="G72">
+        <v>-0.05368173724291823</v>
+      </c>
+      <c r="H72">
+        <v>-0.09186508672337904</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1080351372472416</v>
+        <v>-0.2820297088579867</v>
       </c>
       <c r="C73">
-        <v>-0.2078914394319209</v>
+        <v>0.1546502048714134</v>
       </c>
       <c r="D73">
-        <v>-0.01133527654712758</v>
+        <v>-0.00611636019301835</v>
       </c>
       <c r="E73">
-        <v>0.0435215939117169</v>
+        <v>0.09771922923104205</v>
       </c>
       <c r="F73">
-        <v>0.2039753786053403</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1504821561036006</v>
+      </c>
+      <c r="G73">
+        <v>-0.03320927406631009</v>
+      </c>
+      <c r="H73">
+        <v>-0.4798104094844077</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0979781863025629</v>
+        <v>-0.09560006627247575</v>
       </c>
       <c r="C74">
-        <v>-0.09422762024589196</v>
+        <v>0.1387642015038862</v>
       </c>
       <c r="D74">
-        <v>0.0260605824130181</v>
+        <v>-0.01687122056378204</v>
       </c>
       <c r="E74">
-        <v>-0.05590161956865749</v>
+        <v>-0.01830155846636837</v>
       </c>
       <c r="F74">
-        <v>-0.07418422012307711</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.03300244133768348</v>
+      </c>
+      <c r="G74">
+        <v>0.004940373764985092</v>
+      </c>
+      <c r="H74">
+        <v>0.05563578397402614</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1669644711126235</v>
+        <v>-0.2007224067826892</v>
       </c>
       <c r="C75">
-        <v>-0.1820610497840029</v>
+        <v>0.2338726632137688</v>
       </c>
       <c r="D75">
-        <v>0.01384316119177864</v>
+        <v>-0.03862531700063362</v>
       </c>
       <c r="E75">
-        <v>-0.1645955615669879</v>
+        <v>-0.01775641521895905</v>
       </c>
       <c r="F75">
-        <v>-0.1083914675440502</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.09580084826796192</v>
+      </c>
+      <c r="G75">
+        <v>0.007559775475191118</v>
+      </c>
+      <c r="H75">
+        <v>0.1721363549353187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2242976983768931</v>
+        <v>-0.14940077174109</v>
       </c>
       <c r="C76">
-        <v>-0.1870331943728228</v>
+        <v>0.2048550939431759</v>
       </c>
       <c r="D76">
-        <v>0.02833945927450122</v>
+        <v>-0.03259251243243232</v>
       </c>
       <c r="E76">
-        <v>-0.1829724087983612</v>
+        <v>-0.05952028372987311</v>
       </c>
       <c r="F76">
-        <v>-0.2095929509316044</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.08005288392242582</v>
+      </c>
+      <c r="G76">
+        <v>0.02030495607409317</v>
+      </c>
+      <c r="H76">
+        <v>0.1518508123073348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07481736616462625</v>
+        <v>-0.04472798117799243</v>
       </c>
       <c r="C77">
-        <v>-0.08989829589674081</v>
+        <v>0.08883214851694245</v>
       </c>
       <c r="D77">
-        <v>0.06430361678776225</v>
+        <v>0.01132373694328517</v>
       </c>
       <c r="E77">
-        <v>0.02734222638788477</v>
+        <v>0.01272928498825147</v>
       </c>
       <c r="F77">
-        <v>0.1086204261539996</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.04489485082250848</v>
+      </c>
+      <c r="G77">
+        <v>-0.02498782101167597</v>
+      </c>
+      <c r="H77">
+        <v>-0.01468503125360547</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04710890126317779</v>
+        <v>-0.0210330003671917</v>
       </c>
       <c r="C78">
-        <v>-0.03897872861226478</v>
+        <v>0.07713898301176551</v>
       </c>
       <c r="D78">
-        <v>0.1007043749624952</v>
+        <v>0.005560104269008171</v>
       </c>
       <c r="E78">
-        <v>-0.03589084916992882</v>
+        <v>-0.002077037015311355</v>
       </c>
       <c r="F78">
-        <v>0.07293060203407818</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.003776548143987131</v>
+      </c>
+      <c r="G78">
+        <v>-0.0410294444546486</v>
+      </c>
+      <c r="H78">
+        <v>-0.08812705686718697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.7417031210640592</v>
+        <v>-0.09741184608786987</v>
       </c>
       <c r="C80">
-        <v>0.6432650846367844</v>
+        <v>0.09985881369686107</v>
       </c>
       <c r="D80">
-        <v>0.07737771647674588</v>
+        <v>0.00134326708829209</v>
       </c>
       <c r="E80">
-        <v>0.04587073654430614</v>
+        <v>-0.8816004647558727</v>
       </c>
       <c r="F80">
-        <v>0.05999770828753608</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.3844871563596549</v>
+      </c>
+      <c r="G80">
+        <v>-0.08660989370188878</v>
+      </c>
+      <c r="H80">
+        <v>-0.09375036854785732</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1424703705202581</v>
+        <v>-0.12944873675259</v>
       </c>
       <c r="C81">
-        <v>-0.1352554778834473</v>
+        <v>0.1480757762212222</v>
       </c>
       <c r="D81">
-        <v>0.004768278895324078</v>
+        <v>-0.02392722397209247</v>
       </c>
       <c r="E81">
-        <v>-0.1283018864485082</v>
+        <v>-0.02785321788992611</v>
       </c>
       <c r="F81">
-        <v>-0.09246461731827023</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.05355176414065409</v>
+      </c>
+      <c r="G81">
+        <v>0.009255329941310553</v>
+      </c>
+      <c r="H81">
+        <v>0.1066747261730991</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.021020751636303</v>
+        <v>-0.02073076879131362</v>
       </c>
       <c r="C83">
-        <v>-0.0272024194871606</v>
+        <v>0.02360559128595878</v>
       </c>
       <c r="D83">
-        <v>0.02027053613053425</v>
+        <v>0.003589414120150257</v>
       </c>
       <c r="E83">
-        <v>0.01574653971019594</v>
+        <v>0.006320404395197895</v>
       </c>
       <c r="F83">
-        <v>0.04916566794527742</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01910230157559103</v>
+      </c>
+      <c r="G83">
+        <v>-0.02156402389435377</v>
+      </c>
+      <c r="H83">
+        <v>-0.04660467031116891</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1839508541320636</v>
+        <v>-0.179444557298667</v>
       </c>
       <c r="C85">
-        <v>-0.1872703042803363</v>
+        <v>0.2229832002830377</v>
       </c>
       <c r="D85">
-        <v>0.02766603264670571</v>
+        <v>-0.02335530200432053</v>
       </c>
       <c r="E85">
-        <v>-0.1659260278089425</v>
+        <v>-0.02122623645899363</v>
       </c>
       <c r="F85">
-        <v>-0.1482699361301677</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1173714494026566</v>
+      </c>
+      <c r="G85">
+        <v>0.04469589006968543</v>
+      </c>
+      <c r="H85">
+        <v>0.1125420702117645</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.007715855008138531</v>
+        <v>-0.01064537031099526</v>
       </c>
       <c r="C86">
-        <v>0.0003122744205760805</v>
+        <v>0.03393345447186763</v>
       </c>
       <c r="D86">
-        <v>0.06569421882932064</v>
+        <v>0.007719582940916509</v>
       </c>
       <c r="E86">
-        <v>0.005383212941744002</v>
+        <v>-0.003228614175865912</v>
       </c>
       <c r="F86">
-        <v>0.04111756972649653</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02852157029613217</v>
+      </c>
+      <c r="G86">
+        <v>-0.01054045325544426</v>
+      </c>
+      <c r="H86">
+        <v>-0.0726412841405344</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02405345666288049</v>
+        <v>-0.00510350793502722</v>
       </c>
       <c r="C87">
-        <v>-0.0213569977672761</v>
+        <v>0.03988468009418267</v>
       </c>
       <c r="D87">
-        <v>0.03961680653400088</v>
+        <v>0.009651999542317337</v>
       </c>
       <c r="E87">
-        <v>-0.009376651807973624</v>
+        <v>0.006744981914328629</v>
       </c>
       <c r="F87">
-        <v>0.09389281929426774</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.03349850030035745</v>
+      </c>
+      <c r="G87">
+        <v>-0.05052555165918953</v>
+      </c>
+      <c r="H87">
+        <v>-0.08077331213333962</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01806568159389887</v>
+        <v>-0.04144470350962397</v>
       </c>
       <c r="C88">
-        <v>0.001225332186171933</v>
+        <v>0.01747476298785151</v>
       </c>
       <c r="D88">
-        <v>-0.0010924307390738</v>
+        <v>0.01715880878181489</v>
       </c>
       <c r="E88">
-        <v>-0.008013363113405305</v>
+        <v>-0.02488708904263679</v>
       </c>
       <c r="F88">
-        <v>-0.02191099554730321</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01997458269965329</v>
+      </c>
+      <c r="G88">
+        <v>-0.0005468531505175183</v>
+      </c>
+      <c r="H88">
+        <v>-0.004695594834250261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09054420913918509</v>
+        <v>-0.3241634453422928</v>
       </c>
       <c r="C89">
-        <v>-0.07254779646453843</v>
+        <v>-0.2874918763776586</v>
       </c>
       <c r="D89">
-        <v>-0.3491840696272697</v>
+        <v>-0.03666249922475189</v>
       </c>
       <c r="E89">
-        <v>0.06757721738525287</v>
+        <v>0.00843002784759486</v>
       </c>
       <c r="F89">
-        <v>0.08935745127851202</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.006818182556482907</v>
+      </c>
+      <c r="G89">
+        <v>0.026443549065189</v>
+      </c>
+      <c r="H89">
+        <v>0.01228864963208719</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0818365178763192</v>
+        <v>-0.2682453708219193</v>
       </c>
       <c r="C90">
-        <v>-0.0360467261523435</v>
+        <v>-0.2638891174260157</v>
       </c>
       <c r="D90">
-        <v>-0.3509473405882709</v>
+        <v>-0.03398763080773546</v>
       </c>
       <c r="E90">
-        <v>0.08659648046783805</v>
+        <v>0.002732037244787421</v>
       </c>
       <c r="F90">
-        <v>0.04079380257237157</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.05517554504674216</v>
+      </c>
+      <c r="G90">
+        <v>0.02063098358549506</v>
+      </c>
+      <c r="H90">
+        <v>0.05985177764359296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2111609884741357</v>
+        <v>-0.1925477625380865</v>
       </c>
       <c r="C91">
-        <v>-0.2365906030457811</v>
+        <v>0.2116397639390411</v>
       </c>
       <c r="D91">
-        <v>0.03453392234372436</v>
+        <v>-0.03658180025933046</v>
       </c>
       <c r="E91">
-        <v>-0.1462849392916056</v>
+        <v>-0.01367365698176226</v>
       </c>
       <c r="F91">
-        <v>-0.2242715295910523</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.09184712860902453</v>
+      </c>
+      <c r="G91">
+        <v>0.04107400845717284</v>
+      </c>
+      <c r="H91">
+        <v>0.1907480979424739</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1377161932152564</v>
+        <v>-0.2812579350505381</v>
       </c>
       <c r="C92">
-        <v>-0.1079325582691763</v>
+        <v>-0.1727374873737463</v>
       </c>
       <c r="D92">
-        <v>-0.4418661178255934</v>
+        <v>-0.07411485105071704</v>
       </c>
       <c r="E92">
-        <v>-0.01040073996013715</v>
+        <v>-0.004779284482949001</v>
       </c>
       <c r="F92">
-        <v>-0.127148432663325</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.04324018138527324</v>
+      </c>
+      <c r="G92">
+        <v>-0.01187181358732307</v>
+      </c>
+      <c r="H92">
+        <v>0.1560375413089801</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.07544750339002687</v>
+        <v>-0.3022180475883666</v>
       </c>
       <c r="C93">
-        <v>-0.08174606271638156</v>
+        <v>-0.2598576344376244</v>
       </c>
       <c r="D93">
-        <v>-0.4101622764136201</v>
+        <v>-0.04343240052675867</v>
       </c>
       <c r="E93">
-        <v>0.1397734441027069</v>
+        <v>0.03350038310602409</v>
       </c>
       <c r="F93">
-        <v>0.05422898003242731</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.03767348148791137</v>
+      </c>
+      <c r="G93">
+        <v>0.03621742750721067</v>
+      </c>
+      <c r="H93">
+        <v>-0.0101029548151434</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1944980108249474</v>
+        <v>-0.2345214141208852</v>
       </c>
       <c r="C94">
-        <v>-0.2311308815575243</v>
+        <v>0.2338224974005522</v>
       </c>
       <c r="D94">
-        <v>0.02914404357765636</v>
+        <v>-0.02644586144241847</v>
       </c>
       <c r="E94">
-        <v>-0.2314833492002088</v>
+        <v>-0.009367535053341765</v>
       </c>
       <c r="F94">
-        <v>-0.1507717518152061</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2024876923715418</v>
+      </c>
+      <c r="G94">
+        <v>0.03128157506366128</v>
+      </c>
+      <c r="H94">
+        <v>0.4116206780683491</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.003192747257385207</v>
+        <v>-0.03119729670818223</v>
       </c>
       <c r="C95">
-        <v>-0.09154981812162487</v>
+        <v>0.1025647489012391</v>
       </c>
       <c r="D95">
-        <v>0.02914982956443967</v>
+        <v>-0.007603951843579681</v>
       </c>
       <c r="E95">
-        <v>-0.02319082542684114</v>
+        <v>0.09028121171495503</v>
       </c>
       <c r="F95">
-        <v>0.009940919256175587</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.02339981467017342</v>
+      </c>
+      <c r="G95">
+        <v>-0.02339247383114668</v>
+      </c>
+      <c r="H95">
+        <v>-0.0372981417789198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.09676287370561404</v>
+        <v>-0.1854184059648707</v>
       </c>
       <c r="C98">
-        <v>-0.1377408914199764</v>
+        <v>0.06866965266585516</v>
       </c>
       <c r="D98">
-        <v>-0.02621084434979179</v>
+        <v>-0.03264101895590085</v>
       </c>
       <c r="E98">
-        <v>0.07452257573462168</v>
+        <v>0.07121368230691975</v>
       </c>
       <c r="F98">
-        <v>0.1841940925913961</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01691896981777204</v>
+      </c>
+      <c r="G98">
+        <v>-0.03100773918797417</v>
+      </c>
+      <c r="H98">
+        <v>-0.3411774077877118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.009791073645308439</v>
+        <v>-0.006522487120700564</v>
       </c>
       <c r="C101">
-        <v>0.0012227286030686</v>
+        <v>0.017896528311708</v>
       </c>
       <c r="D101">
-        <v>0.04895669819462231</v>
+        <v>0.006245347777477442</v>
       </c>
       <c r="E101">
-        <v>-0.02394725818339802</v>
+        <v>0.004349950127210312</v>
       </c>
       <c r="F101">
-        <v>0.1737728770100038</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04449019745626552</v>
+      </c>
+      <c r="G101">
+        <v>-0.06878256424608335</v>
+      </c>
+      <c r="H101">
+        <v>-0.005478504127508966</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09128666005295166</v>
+        <v>-0.09462596075647595</v>
       </c>
       <c r="C102">
-        <v>-0.08714842714562944</v>
+        <v>0.1109597212946329</v>
       </c>
       <c r="D102">
-        <v>0.01073262954841571</v>
+        <v>-0.005387632814140344</v>
       </c>
       <c r="E102">
-        <v>-0.08413660446016716</v>
+        <v>-0.01447710458742866</v>
       </c>
       <c r="F102">
-        <v>-0.0914172662048854</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.05939362990888006</v>
+      </c>
+      <c r="G102">
+        <v>0.01381072423014109</v>
+      </c>
+      <c r="H102">
+        <v>0.06890045991395125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04304340695256879</v>
+        <v>-0.01183481880717992</v>
       </c>
       <c r="C103">
-        <v>-0.02582333715069662</v>
+        <v>0.01881784875935111</v>
       </c>
       <c r="D103">
-        <v>0.01738697463491294</v>
+        <v>-0.0008936283877169138</v>
       </c>
       <c r="E103">
-        <v>-0.04428684432166038</v>
+        <v>-0.01260957807686851</v>
       </c>
       <c r="F103">
-        <v>-0.009035009609772181</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.003625412055422741</v>
+      </c>
+      <c r="G103">
+        <v>-0.007111412747776211</v>
+      </c>
+      <c r="H103">
+        <v>0.01735299855116412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.114410392062439</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.05808807768799126</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9774984116874232</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02604981290309909</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.08724857782146692</v>
+      </c>
+      <c r="G104">
+        <v>-0.08323617530870117</v>
+      </c>
+      <c r="H104">
+        <v>0.06005901779156965</v>
       </c>
     </row>
   </sheetData>
